--- a/monthAnalysisReport.xlsx
+++ b/monthAnalysisReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>סה"כ</t>
   </si>
@@ -65,9 +65,6 @@
     <t>ינואר</t>
   </si>
   <si>
-    <t xml:space="preserve"> ערוץ מאורגן</t>
-  </si>
-  <si>
     <t>ערוץ מאורגן</t>
   </si>
   <si>
@@ -80,36 +77,6 @@
     <t>תמיכה במשאבי אנוש/כספים</t>
   </si>
   <si>
-    <t>תמריץ Reserve Brands</t>
-  </si>
-  <si>
-    <t>תמריץ גרופו קמפרי</t>
-  </si>
-  <si>
-    <t>תמריץ תבור</t>
-  </si>
-  <si>
-    <t>תמריץ וודקה</t>
-  </si>
-  <si>
-    <t>תמריץ וויסקי</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> ערוץ מסורתי               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Ariel"/>
-        <charset val="177"/>
-      </rPr>
-      <t xml:space="preserve"> ללא תמריצי תקציב דיול</t>
-    </r>
-  </si>
-  <si>
     <t>הערות ערוץ מאורגן</t>
   </si>
   <si>
@@ -125,34 +92,6 @@
     <t>כמות בק' שנפתחו</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">מס נק' דיול (יוניק) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Ariel"/>
-        <charset val="177"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>כמות  דיולים בחנויות</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Ariel"/>
-        <charset val="177"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>שעות דיול</t>
   </si>
   <si>
@@ -169,16 +108,29 @@
   </si>
   <si>
     <t>תדמית יום</t>
+  </si>
+  <si>
+    <t>ערוץ תדמית יום</t>
+  </si>
+  <si>
+    <t>ערוץ מסורתי</t>
+  </si>
+  <si>
+    <t>כמות דיולים בחנויות</t>
+  </si>
+  <si>
+    <t>מס' נק' יוניק</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;₪&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;₪&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +161,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Ariel"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Ariel"/>
       <charset val="177"/>
@@ -271,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -358,19 +303,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -477,19 +409,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -503,19 +422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -527,19 +433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -596,36 +489,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -739,6 +602,111 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -747,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,177 +732,204 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,671 +1245,705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17:AD17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.7" thickBot="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+    <row r="1" spans="1:35" ht="14.7" thickBot="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
     </row>
-    <row r="2" spans="1:32" ht="14.7" thickBot="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
+    <row r="2" spans="1:35" ht="14.7" thickBot="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
     </row>
-    <row r="3" spans="1:32" ht="14.7" customHeight="1" thickBot="1">
-      <c r="A3" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="47" t="s">
+    <row r="3" spans="1:35" ht="14.7" customHeight="1" thickBot="1">
+      <c r="A3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="68"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="50" t="s">
+      <c r="W3" s="68"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI3" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="51.7" thickBot="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="37" t="s">
+      <c r="E4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="40" t="s">
+      <c r="R4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF3" s="45" t="s">
-        <v>24</v>
-      </c>
+      <c r="T4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="63"/>
     </row>
-    <row r="4" spans="1:32" ht="57" thickBot="1">
-      <c r="A4" s="57"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="W4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="46"/>
+    <row r="5" spans="1:35">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
+    <row r="6" spans="1:35">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
+    <row r="7" spans="1:35">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:35">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:35">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:35">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:35">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:35">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:35">
+      <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:35">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:35">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
     </row>
-    <row r="16" spans="1:32" ht="14.7" thickBot="1">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:35" ht="14.7" thickBot="1">
+      <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7">
-        <f>(B16-D16-E16-F16-L16)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="27">
-        <f>SUM(G16:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="1:32" ht="14.7" thickBot="1">
+    <row r="17" spans="1:35" ht="14.7" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" ref="B17:P17" si="0">SUM(B5:B16)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
+        <f t="shared" ref="B17:S17" si="0">SUM(B5:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1958,74 +1987,95 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="2">
-        <f>SUM(Q5:Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <f>SUM(V5:V16)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <f>SUM(X5:X16)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
+      <c r="Q17" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="42">
+        <f>SUM(T5:T16)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="42">
         <f>SUM(Y5:Y16)</f>
         <v>0</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="42">
         <f>SUM(AA5:AA16)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="2">
+      <c r="W17" s="42">
         <f>SUM(AB5:AB16)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="2">
-        <f>SUM(AC5:AC16)</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="2">
+      <c r="X17" s="42">
         <f>SUM(AD5:AD16)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="2">
-        <f t="shared" ref="Y17:AD17" si="1">SUM(AE5:AE16)</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2">
+      <c r="Y17" s="42">
+        <f>SUM(AE5:AE16)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="42">
+        <f>SUM(AF5:AF16)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="42">
+        <f>SUM(AG5:AG16)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="42">
+        <f t="shared" ref="AB17:AD17" si="1">SUM(AH5:AH16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AD17" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
+      <c r="AE17" s="42">
+        <f t="shared" ref="AE17" si="2">SUM(AK5:AK16)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="42">
+        <f t="shared" ref="AF17" si="3">SUM(AL5:AL16)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="42">
+        <f t="shared" ref="AG17" si="4">SUM(AM5:AM16)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="AB3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
